--- a/OREI_files/40-herd data/OREI_40herd_DHIA_info_stats_and_survey_extras.xlsx
+++ b/OREI_files/40-herd data/OREI_40herd_DHIA_info_stats_and_survey_extras.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1948,6 +1948,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1956,13 +1963,6 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2304,16 +2304,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="88"/>
-      <c r="C1" s="88" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88" t="s">
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="G1" s="88"/>
+      <c r="G1" s="85"/>
     </row>
     <row r="2" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -2862,7 +2862,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="87"/>
+      <c r="A26" s="84"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2894,7 +2894,7 @@
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="83" t="s">
         <v>62</v>
       </c>
       <c r="C2" t="s">
@@ -2905,7 +2905,7 @@
       <c r="A3" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>167</v>
       </c>
       <c r="C3" t="s">
@@ -3016,7 +3016,7 @@
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="83" t="s">
         <v>62</v>
       </c>
       <c r="C2" t="s">
@@ -3027,7 +3027,7 @@
       <c r="A3" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>167</v>
       </c>
       <c r="C3" t="s">
@@ -3199,7 +3199,7 @@
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="83" t="s">
         <v>62</v>
       </c>
       <c r="C2" t="s">
@@ -3210,7 +3210,7 @@
       <c r="A3" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>167</v>
       </c>
       <c r="C3" t="s">
@@ -3326,7 +3326,7 @@
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="83" t="s">
         <v>62</v>
       </c>
       <c r="C2" t="s">
@@ -3337,7 +3337,7 @@
       <c r="A3" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>167</v>
       </c>
       <c r="C3" t="s">
@@ -3428,7 +3428,7 @@
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="83" t="s">
         <v>62</v>
       </c>
       <c r="C2" t="s">
@@ -3439,7 +3439,7 @@
       <c r="A3" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>167</v>
       </c>
       <c r="C3" t="s">
@@ -3594,7 +3594,7 @@
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="83" t="s">
         <v>62</v>
       </c>
       <c r="C2" t="s">
@@ -3605,7 +3605,7 @@
       <c r="A3" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>167</v>
       </c>
       <c r="C3" t="s">
@@ -3713,7 +3713,7 @@
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="83" t="s">
         <v>62</v>
       </c>
       <c r="C2" t="s">
@@ -3724,7 +3724,7 @@
       <c r="A3" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>167</v>
       </c>
       <c r="C3" t="s">
@@ -3838,7 +3838,7 @@
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="83" t="s">
         <v>62</v>
       </c>
       <c r="C2" t="s">
@@ -3849,7 +3849,7 @@
       <c r="A3" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>167</v>
       </c>
       <c r="C3" t="s">
@@ -4014,7 +4014,7 @@
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="83" t="s">
         <v>62</v>
       </c>
       <c r="C2" t="s">
@@ -4025,7 +4025,7 @@
       <c r="A3" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>167</v>
       </c>
       <c r="C3" t="s">
@@ -4108,7 +4108,7 @@
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="83" t="s">
         <v>62</v>
       </c>
       <c r="C2" t="s">
@@ -4119,7 +4119,7 @@
       <c r="A3" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>167</v>
       </c>
       <c r="C3" t="s">
@@ -5096,80 +5096,80 @@
     <row r="25" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D25"/>
       <c r="H25"/>
-      <c r="K25" s="83" t="s">
+      <c r="K25" s="86" t="s">
         <v>391</v>
       </c>
-      <c r="L25" s="83"/>
+      <c r="L25" s="86"/>
     </row>
     <row r="26" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D26" s="3"/>
-      <c r="E26" s="84" t="s">
+      <c r="E26" s="87" t="s">
         <v>381</v>
       </c>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D27" s="3"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="83"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D28" s="3"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D29" s="3"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D30" s="3"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="87"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D31" s="3"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="87"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D32" s="3"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="87"/>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D33" s="3"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="87"/>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D34" s="3"/>
@@ -5449,7 +5449,7 @@
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="83" t="s">
         <v>62</v>
       </c>
       <c r="C2" t="s">
@@ -5460,7 +5460,7 @@
       <c r="A3" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>167</v>
       </c>
       <c r="C3" t="s">
@@ -5570,7 +5570,7 @@
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="83" t="s">
         <v>62</v>
       </c>
       <c r="G2" t="s">
@@ -5581,7 +5581,7 @@
       <c r="A3" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>167</v>
       </c>
       <c r="G3" t="s">
@@ -5666,7 +5666,7 @@
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="83" t="s">
         <v>62</v>
       </c>
       <c r="H2" t="s">
@@ -5677,7 +5677,7 @@
       <c r="A3" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>167</v>
       </c>
       <c r="H3" t="s">
@@ -5767,7 +5767,7 @@
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="83" t="s">
         <v>62</v>
       </c>
       <c r="H2" t="s">
@@ -5778,7 +5778,7 @@
       <c r="A3" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>167</v>
       </c>
       <c r="H3" t="s">
@@ -5843,7 +5843,7 @@
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="83" t="s">
         <v>62</v>
       </c>
       <c r="C2" t="s">
@@ -5854,7 +5854,7 @@
       <c r="A3" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>167</v>
       </c>
       <c r="C3" t="s">
@@ -5977,7 +5977,7 @@
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="83" t="s">
         <v>62</v>
       </c>
       <c r="C2" t="s">
@@ -5988,7 +5988,7 @@
       <c r="A3" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>167</v>
       </c>
       <c r="C3" t="s">
@@ -6341,8 +6341,8 @@
   <dimension ref="A1:AR90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X9" sqref="X9"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6747,10 +6747,10 @@
       <c r="AD4" s="56"/>
       <c r="AE4" s="56"/>
       <c r="AF4" s="56"/>
-      <c r="AG4" s="85" t="s">
+      <c r="AG4" s="88" t="s">
         <v>389</v>
       </c>
-      <c r="AH4" s="85"/>
+      <c r="AH4" s="88"/>
       <c r="AI4" s="51">
         <f>AA4/100000</f>
         <v>3.91</v>
@@ -6794,8 +6794,8 @@
       <c r="AD5" s="56"/>
       <c r="AE5" s="56"/>
       <c r="AF5" s="56"/>
-      <c r="AG5" s="85"/>
-      <c r="AH5" s="85"/>
+      <c r="AG5" s="88"/>
+      <c r="AH5" s="88"/>
       <c r="AI5" s="51"/>
       <c r="AJ5" s="60"/>
       <c r="AK5" s="61"/>
@@ -8647,10 +8647,10 @@
       <c r="Q25" s="73"/>
       <c r="R25"/>
       <c r="V25"/>
-      <c r="Y25" s="83" t="s">
+      <c r="Y25" s="86" t="s">
         <v>391</v>
       </c>
-      <c r="Z25" s="83"/>
+      <c r="Z25" s="86"/>
     </row>
     <row r="26" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C26"/>
@@ -8666,15 +8666,15 @@
       <c r="P26" s="73"/>
       <c r="Q26" s="73"/>
       <c r="R26" s="3"/>
-      <c r="S26" s="84" t="s">
+      <c r="S26" s="87" t="s">
         <v>381</v>
       </c>
-      <c r="T26" s="84"/>
-      <c r="U26" s="84"/>
-      <c r="V26" s="84"/>
-      <c r="W26" s="84"/>
-      <c r="Y26" s="83"/>
-      <c r="Z26" s="83"/>
+      <c r="T26" s="87"/>
+      <c r="U26" s="87"/>
+      <c r="V26" s="87"/>
+      <c r="W26" s="87"/>
+      <c r="Y26" s="86"/>
+      <c r="Z26" s="86"/>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C27"/>
@@ -8690,13 +8690,13 @@
       <c r="P27" s="73"/>
       <c r="Q27" s="73"/>
       <c r="R27" s="3"/>
-      <c r="S27" s="84"/>
-      <c r="T27" s="84"/>
-      <c r="U27" s="84"/>
-      <c r="V27" s="84"/>
-      <c r="W27" s="84"/>
-      <c r="Y27" s="83"/>
-      <c r="Z27" s="83"/>
+      <c r="S27" s="87"/>
+      <c r="T27" s="87"/>
+      <c r="U27" s="87"/>
+      <c r="V27" s="87"/>
+      <c r="W27" s="87"/>
+      <c r="Y27" s="86"/>
+      <c r="Z27" s="86"/>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C28"/>
@@ -8712,11 +8712,11 @@
       <c r="P28" s="73"/>
       <c r="Q28" s="73"/>
       <c r="R28" s="3"/>
-      <c r="S28" s="84"/>
-      <c r="T28" s="84"/>
-      <c r="U28" s="84"/>
-      <c r="V28" s="84"/>
-      <c r="W28" s="84"/>
+      <c r="S28" s="87"/>
+      <c r="T28" s="87"/>
+      <c r="U28" s="87"/>
+      <c r="V28" s="87"/>
+      <c r="W28" s="87"/>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C29"/>
@@ -8732,11 +8732,11 @@
       <c r="P29" s="73"/>
       <c r="Q29" s="74"/>
       <c r="R29" s="3"/>
-      <c r="S29" s="84"/>
-      <c r="T29" s="84"/>
-      <c r="U29" s="84"/>
-      <c r="V29" s="84"/>
-      <c r="W29" s="84"/>
+      <c r="S29" s="87"/>
+      <c r="T29" s="87"/>
+      <c r="U29" s="87"/>
+      <c r="V29" s="87"/>
+      <c r="W29" s="87"/>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C30"/>
@@ -8752,11 +8752,11 @@
       <c r="P30" s="73"/>
       <c r="Q30" s="74"/>
       <c r="R30" s="3"/>
-      <c r="S30" s="84"/>
-      <c r="T30" s="84"/>
-      <c r="U30" s="84"/>
-      <c r="V30" s="84"/>
-      <c r="W30" s="84"/>
+      <c r="S30" s="87"/>
+      <c r="T30" s="87"/>
+      <c r="U30" s="87"/>
+      <c r="V30" s="87"/>
+      <c r="W30" s="87"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C31"/>
@@ -8772,11 +8772,11 @@
       <c r="P31" s="73"/>
       <c r="Q31" s="74"/>
       <c r="R31" s="3"/>
-      <c r="S31" s="84"/>
-      <c r="T31" s="84"/>
-      <c r="U31" s="84"/>
-      <c r="V31" s="84"/>
-      <c r="W31" s="84"/>
+      <c r="S31" s="87"/>
+      <c r="T31" s="87"/>
+      <c r="U31" s="87"/>
+      <c r="V31" s="87"/>
+      <c r="W31" s="87"/>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C32"/>
@@ -8792,22 +8792,22 @@
       <c r="P32" s="73"/>
       <c r="Q32" s="74"/>
       <c r="R32" s="3"/>
-      <c r="S32" s="84"/>
-      <c r="T32" s="84"/>
-      <c r="U32" s="84"/>
-      <c r="V32" s="84"/>
-      <c r="W32" s="84"/>
+      <c r="S32" s="87"/>
+      <c r="T32" s="87"/>
+      <c r="U32" s="87"/>
+      <c r="V32" s="87"/>
+      <c r="W32" s="87"/>
     </row>
     <row r="33" spans="15:37" customFormat="1" x14ac:dyDescent="0.35">
       <c r="O33" s="30"/>
       <c r="P33" s="73"/>
       <c r="Q33" s="74"/>
       <c r="R33" s="3"/>
-      <c r="S33" s="84"/>
-      <c r="T33" s="84"/>
-      <c r="U33" s="84"/>
-      <c r="V33" s="84"/>
-      <c r="W33" s="84"/>
+      <c r="S33" s="87"/>
+      <c r="T33" s="87"/>
+      <c r="U33" s="87"/>
+      <c r="V33" s="87"/>
+      <c r="W33" s="87"/>
       <c r="X33" s="24"/>
       <c r="Z33" s="52"/>
       <c r="AB33" s="52"/>
@@ -10435,7 +10435,7 @@
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="83" t="s">
         <v>62</v>
       </c>
       <c r="C2" t="s">
@@ -10446,7 +10446,7 @@
       <c r="A3" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>167</v>
       </c>
       <c r="C3" t="s">
@@ -10719,7 +10719,7 @@
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="83" t="s">
         <v>62</v>
       </c>
       <c r="C2" t="s">
@@ -10730,7 +10730,7 @@
       <c r="A3" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>167</v>
       </c>
       <c r="C3" t="s">
@@ -10810,7 +10810,7 @@
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="83" t="s">
         <v>62</v>
       </c>
       <c r="C2" t="s">
@@ -10821,7 +10821,7 @@
       <c r="A3" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>167</v>
       </c>
       <c r="C3" t="s">
@@ -10988,7 +10988,7 @@
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="83" t="s">
         <v>62</v>
       </c>
       <c r="C2" t="s">
@@ -10999,7 +10999,7 @@
       <c r="A3" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>167</v>
       </c>
       <c r="C3" t="s">
@@ -11112,7 +11112,7 @@
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="83" t="s">
         <v>62</v>
       </c>
       <c r="C2" t="s">
@@ -11123,7 +11123,7 @@
       <c r="A3" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>167</v>
       </c>
       <c r="C3" t="s">

--- a/OREI_files/40-herd data/OREI_40herd_DHIA_info_stats_and_survey_extras.xlsx
+++ b/OREI_files/40-herd data/OREI_40herd_DHIA_info_stats_and_survey_extras.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/40-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{37809753-CF3B-4F91-8AF5-32DEB5DEB093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0EF3A59-C2C1-404D-8A64-5773FC5133AE}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{37809753-CF3B-4F91-8AF5-32DEB5DEB093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D6E9124-5F56-44AB-B00F-9360FFDB77F2}"/>
   <bookViews>
-    <workbookView xWindow="110" yWindow="110" windowWidth="19180" windowHeight="10060" tabRatio="914" firstSheet="2" activeTab="3" xr2:uid="{19447A74-B07C-4159-8072-709873AAA3D0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="914" firstSheet="2" activeTab="3" xr2:uid="{19447A74-B07C-4159-8072-709873AAA3D0}"/>
   </bookViews>
   <sheets>
     <sheet name="mast and subclin mast ID (7a+b)" sheetId="29" r:id="rId1"/>
@@ -43,17 +43,27 @@
     <sheet name="von Trapp 11.8.21" sheetId="26" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="525">
   <si>
     <t>Question</t>
   </si>
@@ -1683,6 +1693,9 @@
   <si>
     <t>% VT organic farms using DHIA</t>
   </si>
+  <si>
+    <t>try reaching out to processor instead? Organic valley- john cleary</t>
+  </si>
 </sst>
 </file>
 
@@ -1693,7 +1706,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -2179,27 +2192,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2224,6 +2228,15 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -5345,80 +5358,80 @@
     </row>
     <row r="25" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H25"/>
-      <c r="K25" s="73" t="s">
+      <c r="K25" s="93" t="s">
         <v>391</v>
       </c>
-      <c r="L25" s="73"/>
+      <c r="L25" s="93"/>
     </row>
     <row r="26" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D26" s="2"/>
-      <c r="E26" s="74" t="s">
+      <c r="E26" s="94" t="s">
         <v>381</v>
       </c>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="93"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D27" s="2"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D28" s="2"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D29" s="2"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D30" s="2"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D31" s="2"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D32" s="2"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D33" s="2"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D34" s="2"/>
@@ -7054,10 +7067,10 @@
         <v>853516</v>
       </c>
       <c r="AF4" s="46"/>
-      <c r="AG4" s="75" t="s">
+      <c r="AG4" s="95" t="s">
         <v>389</v>
       </c>
-      <c r="AH4" s="75"/>
+      <c r="AH4" s="95"/>
       <c r="AI4" s="41">
         <f>AA4/100000</f>
         <v>3.91</v>
@@ -7101,8 +7114,8 @@
       <c r="AD5" s="46"/>
       <c r="AE5" s="46"/>
       <c r="AF5" s="46"/>
-      <c r="AG5" s="75"/>
-      <c r="AH5" s="75"/>
+      <c r="AG5" s="95"/>
+      <c r="AH5" s="95"/>
       <c r="AI5" s="41"/>
       <c r="AJ5" s="50"/>
       <c r="AK5" s="51"/>
@@ -9061,10 +9074,10 @@
       <c r="P25" s="63"/>
       <c r="Q25" s="63"/>
       <c r="V25"/>
-      <c r="Y25" s="73" t="s">
+      <c r="Y25" s="93" t="s">
         <v>391</v>
       </c>
-      <c r="Z25" s="73"/>
+      <c r="Z25" s="93"/>
     </row>
     <row r="26" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C26"/>
@@ -9080,15 +9093,15 @@
       <c r="P26" s="63"/>
       <c r="Q26" s="63"/>
       <c r="R26" s="2"/>
-      <c r="S26" s="74" t="s">
+      <c r="S26" s="94" t="s">
         <v>381</v>
       </c>
-      <c r="T26" s="74"/>
-      <c r="U26" s="74"/>
-      <c r="V26" s="74"/>
-      <c r="W26" s="74"/>
-      <c r="Y26" s="73"/>
-      <c r="Z26" s="73"/>
+      <c r="T26" s="94"/>
+      <c r="U26" s="94"/>
+      <c r="V26" s="94"/>
+      <c r="W26" s="94"/>
+      <c r="Y26" s="93"/>
+      <c r="Z26" s="93"/>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C27"/>
@@ -9104,13 +9117,13 @@
       <c r="P27" s="63"/>
       <c r="Q27" s="63"/>
       <c r="R27" s="2"/>
-      <c r="S27" s="74"/>
-      <c r="T27" s="74"/>
-      <c r="U27" s="74"/>
-      <c r="V27" s="74"/>
-      <c r="W27" s="74"/>
-      <c r="Y27" s="73"/>
-      <c r="Z27" s="73"/>
+      <c r="S27" s="94"/>
+      <c r="T27" s="94"/>
+      <c r="U27" s="94"/>
+      <c r="V27" s="94"/>
+      <c r="W27" s="94"/>
+      <c r="Y27" s="93"/>
+      <c r="Z27" s="93"/>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C28"/>
@@ -9126,11 +9139,11 @@
       <c r="P28" s="63"/>
       <c r="Q28" s="63"/>
       <c r="R28" s="2"/>
-      <c r="S28" s="74"/>
-      <c r="T28" s="74"/>
-      <c r="U28" s="74"/>
-      <c r="V28" s="74"/>
-      <c r="W28" s="74"/>
+      <c r="S28" s="94"/>
+      <c r="T28" s="94"/>
+      <c r="U28" s="94"/>
+      <c r="V28" s="94"/>
+      <c r="W28" s="94"/>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C29"/>
@@ -9146,11 +9159,11 @@
       <c r="P29" s="63"/>
       <c r="Q29" s="64"/>
       <c r="R29" s="2"/>
-      <c r="S29" s="74"/>
-      <c r="T29" s="74"/>
-      <c r="U29" s="74"/>
-      <c r="V29" s="74"/>
-      <c r="W29" s="74"/>
+      <c r="S29" s="94"/>
+      <c r="T29" s="94"/>
+      <c r="U29" s="94"/>
+      <c r="V29" s="94"/>
+      <c r="W29" s="94"/>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C30"/>
@@ -9166,11 +9179,11 @@
       <c r="P30" s="63"/>
       <c r="Q30" s="64"/>
       <c r="R30" s="2"/>
-      <c r="S30" s="74"/>
-      <c r="T30" s="74"/>
-      <c r="U30" s="74"/>
-      <c r="V30" s="74"/>
-      <c r="W30" s="74"/>
+      <c r="S30" s="94"/>
+      <c r="T30" s="94"/>
+      <c r="U30" s="94"/>
+      <c r="V30" s="94"/>
+      <c r="W30" s="94"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C31"/>
@@ -9186,11 +9199,11 @@
       <c r="P31" s="63"/>
       <c r="Q31" s="64"/>
       <c r="R31" s="2"/>
-      <c r="S31" s="74"/>
-      <c r="T31" s="74"/>
-      <c r="U31" s="74"/>
-      <c r="V31" s="74"/>
-      <c r="W31" s="74"/>
+      <c r="S31" s="94"/>
+      <c r="T31" s="94"/>
+      <c r="U31" s="94"/>
+      <c r="V31" s="94"/>
+      <c r="W31" s="94"/>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.35">
       <c r="C32"/>
@@ -9206,21 +9219,21 @@
       <c r="P32" s="63"/>
       <c r="Q32" s="64"/>
       <c r="R32" s="2"/>
-      <c r="S32" s="74"/>
-      <c r="T32" s="74"/>
-      <c r="U32" s="74"/>
-      <c r="V32" s="74"/>
-      <c r="W32" s="74"/>
+      <c r="S32" s="94"/>
+      <c r="T32" s="94"/>
+      <c r="U32" s="94"/>
+      <c r="V32" s="94"/>
+      <c r="W32" s="94"/>
     </row>
     <row r="33" spans="16:37" customFormat="1" x14ac:dyDescent="0.35">
       <c r="P33" s="63"/>
       <c r="Q33" s="64"/>
       <c r="R33" s="2"/>
-      <c r="S33" s="74"/>
-      <c r="T33" s="74"/>
-      <c r="U33" s="74"/>
-      <c r="V33" s="74"/>
-      <c r="W33" s="74"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="94"/>
+      <c r="U33" s="94"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="94"/>
       <c r="X33" s="21"/>
       <c r="Z33" s="42"/>
       <c r="AB33" s="42"/>
@@ -10241,8 +10254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6D6F5A-B339-468E-ADC3-97784B7C0793}">
   <dimension ref="A1:AT68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG43" zoomScale="64" workbookViewId="0">
-      <selection activeCell="AO61" sqref="AO61"/>
+    <sheetView tabSelected="1" topLeftCell="AG34" zoomScale="98" workbookViewId="0">
+      <selection activeCell="AL52" sqref="AL52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10755,13 +10768,13 @@
         <f>AG25*AH25</f>
         <v>2797.4</v>
       </c>
-      <c r="AP25" s="86" t="s">
+      <c r="AP25" s="83" t="s">
         <v>508</v>
       </c>
-      <c r="AQ25" s="86" t="s">
+      <c r="AQ25" s="83" t="s">
         <v>509</v>
       </c>
-      <c r="AR25" s="86" t="s">
+      <c r="AR25" s="83" t="s">
         <v>510</v>
       </c>
     </row>
@@ -10825,14 +10838,14 @@
         <f t="shared" si="1"/>
         <v>3013.4</v>
       </c>
-      <c r="AP29" s="87" t="s">
+      <c r="AP29" s="84" t="s">
         <v>511</v>
       </c>
-      <c r="AQ29" s="81">
+      <c r="AQ29" s="78">
         <f>AQ26/AP26</f>
         <v>94.378205128205124</v>
       </c>
-      <c r="AR29" s="80">
+      <c r="AR29" s="77">
         <f>AR26/AP26</f>
         <v>87.480769230769226</v>
       </c>
@@ -10901,10 +10914,10 @@
         <f t="shared" si="1"/>
         <v>3238.3</v>
       </c>
-      <c r="AP34" s="86" t="s">
+      <c r="AP34" s="83" t="s">
         <v>506</v>
       </c>
-      <c r="AQ34" s="86" t="s">
+      <c r="AQ34" s="83" t="s">
         <v>507</v>
       </c>
     </row>
@@ -10923,7 +10936,7 @@
       <c r="AP35">
         <v>147</v>
       </c>
-      <c r="AQ35" s="83">
+      <c r="AQ35" s="80">
         <v>187490768</v>
       </c>
     </row>
@@ -10963,10 +10976,10 @@
         <f t="shared" si="1"/>
         <v>1474</v>
       </c>
-      <c r="AP38" s="87" t="s">
+      <c r="AP38" s="84" t="s">
         <v>512</v>
       </c>
-      <c r="AQ38" s="79">
+      <c r="AQ38" s="76">
         <f>AQ35/AP35</f>
         <v>1275447.4013605441</v>
       </c>
@@ -11018,12 +11031,12 @@
         <f t="shared" si="1"/>
         <v>2156.6</v>
       </c>
-      <c r="AP42" s="74" t="s">
+      <c r="AP42" s="94" t="s">
         <v>513</v>
       </c>
-      <c r="AQ42" s="74"/>
-      <c r="AR42" s="74"/>
-      <c r="AS42" s="74"/>
+      <c r="AQ42" s="94"/>
+      <c r="AR42" s="94"/>
+      <c r="AS42" s="94"/>
     </row>
     <row r="43" spans="2:45" x14ac:dyDescent="0.35">
       <c r="AG43" s="34">
@@ -11036,10 +11049,10 @@
         <f t="shared" si="1"/>
         <v>1980</v>
       </c>
-      <c r="AP43" s="74"/>
-      <c r="AQ43" s="74"/>
-      <c r="AR43" s="74"/>
-      <c r="AS43" s="74"/>
+      <c r="AP43" s="94"/>
+      <c r="AQ43" s="94"/>
+      <c r="AR43" s="94"/>
+      <c r="AS43" s="94"/>
     </row>
     <row r="44" spans="2:45" x14ac:dyDescent="0.35">
       <c r="AG44" s="34">
@@ -11052,22 +11065,22 @@
         <f t="shared" si="1"/>
         <v>4062.5999999999995</v>
       </c>
-      <c r="AP44" s="74"/>
-      <c r="AQ44" s="74"/>
-      <c r="AR44" s="74"/>
-      <c r="AS44" s="74"/>
+      <c r="AP44" s="94"/>
+      <c r="AQ44" s="94"/>
+      <c r="AR44" s="94"/>
+      <c r="AS44" s="94"/>
     </row>
     <row r="45" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="AI45" s="76" t="s">
+      <c r="AI45" s="73" t="s">
         <v>499</v>
       </c>
-      <c r="AP45" s="74"/>
-      <c r="AQ45" s="74"/>
-      <c r="AR45" s="74"/>
-      <c r="AS45" s="74"/>
+      <c r="AP45" s="94"/>
+      <c r="AQ45" s="94"/>
+      <c r="AR45" s="94"/>
+      <c r="AS45" s="94"/>
     </row>
     <row r="46" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="AG46" s="82">
+      <c r="AG46" s="79">
         <f>AVERAGE(AG25:AG44)</f>
         <v>56.8</v>
       </c>
@@ -11075,35 +11088,35 @@
         <f>AVERAGE(AH25:AH44)</f>
         <v>47.180000000000007</v>
       </c>
-      <c r="AI46" s="78">
+      <c r="AI46" s="75">
         <f>AH46*365</f>
         <v>17220.7</v>
       </c>
-      <c r="AP46" s="74"/>
-      <c r="AQ46" s="74"/>
-      <c r="AR46" s="74"/>
-      <c r="AS46" s="74"/>
+      <c r="AP46" s="94"/>
+      <c r="AQ46" s="94"/>
+      <c r="AR46" s="94"/>
+      <c r="AS46" s="94"/>
     </row>
     <row r="47" spans="2:45" x14ac:dyDescent="0.35">
       <c r="AJ47" t="s">
         <v>497</v>
       </c>
-      <c r="AP47" s="74"/>
-      <c r="AQ47" s="74"/>
-      <c r="AR47" s="74"/>
-      <c r="AS47" s="74"/>
+      <c r="AP47" s="94"/>
+      <c r="AQ47" s="94"/>
+      <c r="AR47" s="94"/>
+      <c r="AS47" s="94"/>
     </row>
     <row r="48" spans="2:45" x14ac:dyDescent="0.35">
       <c r="AH48" t="s">
         <v>491</v>
       </c>
-      <c r="AI48" s="77" t="s">
+      <c r="AI48" s="74" t="s">
         <v>492</v>
       </c>
       <c r="AJ48" t="s">
         <v>498</v>
       </c>
-      <c r="AK48" s="81">
+      <c r="AK48" s="78">
         <f>AI46/2.2</f>
         <v>7827.590909090909</v>
       </c>
@@ -11112,23 +11125,23 @@
       </c>
     </row>
     <row r="49" spans="34:46" x14ac:dyDescent="0.35">
-      <c r="AI49" s="77" t="s">
+      <c r="AI49" s="74" t="s">
         <v>493</v>
       </c>
       <c r="AJ49" t="s">
         <v>496</v>
       </c>
-      <c r="AP49" s="76" t="s">
+      <c r="AP49" s="73" t="s">
         <v>500</v>
       </c>
-      <c r="AQ49" s="79">
+      <c r="AQ49" s="76">
         <f>AQ38/AQ29</f>
         <v>13514.215486806012</v>
       </c>
       <c r="AR49" t="s">
         <v>502</v>
       </c>
-      <c r="AS49" s="84">
+      <c r="AS49" s="81">
         <f>AQ49/2.2</f>
         <v>6142.8252212754596</v>
       </c>
@@ -11137,17 +11150,17 @@
       </c>
     </row>
     <row r="50" spans="34:46" x14ac:dyDescent="0.35">
-      <c r="AP50" s="76" t="s">
+      <c r="AP50" s="73" t="s">
         <v>501</v>
       </c>
-      <c r="AQ50" s="79">
+      <c r="AQ50" s="76">
         <f>AQ38/AR29</f>
         <v>14579.746069630313</v>
       </c>
       <c r="AR50" t="s">
         <v>502</v>
       </c>
-      <c r="AS50" s="85">
+      <c r="AS50" s="82">
         <f>AQ50/2.2</f>
         <v>6627.1573043774142</v>
       </c>
@@ -11161,39 +11174,42 @@
       </c>
     </row>
     <row r="53" spans="34:46" x14ac:dyDescent="0.35">
-      <c r="AI53" s="77" t="s">
+      <c r="AI53" s="74" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="54" spans="34:46" x14ac:dyDescent="0.35">
-      <c r="AI54" s="77" t="s">
+      <c r="AI54" s="74" t="s">
         <v>505</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="60" spans="34:46" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="61" spans="34:46" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="AI61" s="88"/>
-      <c r="AJ61" s="89" t="s">
+      <c r="AI61" s="85"/>
+      <c r="AJ61" s="86" t="s">
         <v>515</v>
       </c>
-      <c r="AK61" s="90" t="s">
+      <c r="AK61" s="87" t="s">
         <v>516</v>
       </c>
-      <c r="AL61" s="91" t="s">
+      <c r="AL61" s="88" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="62" spans="34:46" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AI62" s="92" t="s">
+      <c r="AI62" s="89" t="s">
         <v>514</v>
       </c>
-      <c r="AJ62" s="93">
+      <c r="AJ62" s="90">
         <v>170.7</v>
       </c>
-      <c r="AK62" s="94">
+      <c r="AK62" s="91">
         <v>79</v>
       </c>
-      <c r="AL62" s="95">
+      <c r="AL62" s="92">
         <v>149000</v>
       </c>
     </row>
@@ -11215,7 +11231,7 @@
       <c r="AJ65" t="s">
         <v>519</v>
       </c>
-      <c r="AK65" s="79">
+      <c r="AK65" s="76">
         <f>(AK62*365)/2.2</f>
         <v>13106.81818181818</v>
       </c>

--- a/OREI_files/40-herd data/OREI_40herd_DHIA_info_stats_and_survey_extras.xlsx
+++ b/OREI_files/40-herd data/OREI_40herd_DHIA_info_stats_and_survey_extras.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="23" documentId="8_{37809753-CF3B-4F91-8AF5-32DEB5DEB093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D6E9124-5F56-44AB-B00F-9360FFDB77F2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="914" firstSheet="2" activeTab="3" xr2:uid="{19447A74-B07C-4159-8072-709873AAA3D0}"/>
+    <workbookView minimized="1" xWindow="7170" yWindow="2340" windowWidth="12370" windowHeight="9400" tabRatio="914" firstSheet="2" activeTab="2" xr2:uid="{19447A74-B07C-4159-8072-709873AAA3D0}"/>
   </bookViews>
   <sheets>
     <sheet name="mast and subclin mast ID (7a+b)" sheetId="29" r:id="rId1"/>
@@ -2261,6 +2261,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6637,9 +6641,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A619F06-D277-4B9C-BE71-8E742E63BE26}">
   <dimension ref="A1:AR90"/>
   <sheetViews>
-    <sheetView zoomScale="67" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD1" sqref="AD1:AE24"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10254,7 +10258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6D6F5A-B339-468E-ADC3-97784B7C0793}">
   <dimension ref="A1:AT68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG34" zoomScale="98" workbookViewId="0">
+    <sheetView topLeftCell="AG34" zoomScale="98" workbookViewId="0">
       <selection activeCell="AL52" sqref="AL52"/>
     </sheetView>
   </sheetViews>

--- a/OREI_files/40-herd data/OREI_40herd_DHIA_info_stats_and_survey_extras.xlsx
+++ b/OREI_files/40-herd data/OREI_40herd_DHIA_info_stats_and_survey_extras.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/40-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{37809753-CF3B-4F91-8AF5-32DEB5DEB093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D6E9124-5F56-44AB-B00F-9360FFDB77F2}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{37809753-CF3B-4F91-8AF5-32DEB5DEB093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7B4DF8D-9D4F-4AF7-839B-20865091FD15}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7170" yWindow="2340" windowWidth="12370" windowHeight="9400" tabRatio="914" firstSheet="2" activeTab="2" xr2:uid="{19447A74-B07C-4159-8072-709873AAA3D0}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" tabRatio="914" firstSheet="2" activeTab="3" xr2:uid="{19447A74-B07C-4159-8072-709873AAA3D0}"/>
   </bookViews>
   <sheets>
     <sheet name="mast and subclin mast ID (7a+b)" sheetId="29" r:id="rId1"/>
@@ -47,23 +47,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="538">
   <si>
     <t>Question</t>
   </si>
@@ -1695,6 +1684,45 @@
   </si>
   <si>
     <t>try reaching out to processor instead? Organic valley- john cleary</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>BJ</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>OB</t>
+  </si>
+  <si>
+    <t>GV</t>
+  </si>
+  <si>
+    <t>48.2 lbs/cow/day from DHIA (n=8)</t>
+  </si>
+  <si>
+    <t>57 from DHIA (n=8)</t>
+  </si>
+  <si>
+    <t>17,597.56 lbs/cow/year from DHIA (n=8)</t>
+  </si>
+  <si>
+    <t>69.5 cows from self-reported</t>
+  </si>
+  <si>
+    <t>avg production for US cow in 2021</t>
   </si>
 </sst>
 </file>
@@ -1817,7 +1845,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1857,6 +1885,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2042,7 +2076,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2237,6 +2271,13 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -6641,9 +6682,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A619F06-D277-4B9C-BE71-8E742E63BE26}">
   <dimension ref="A1:AR90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB25" sqref="AB25"/>
+    <sheetView zoomScale="67" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S7" sqref="S7:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10256,17 +10297,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6D6F5A-B339-468E-ADC3-97784B7C0793}">
-  <dimension ref="A1:AT68"/>
+  <dimension ref="A1:AT91"/>
   <sheetViews>
-    <sheetView topLeftCell="AG34" zoomScale="98" workbookViewId="0">
-      <selection activeCell="AL52" sqref="AL52"/>
+    <sheetView tabSelected="1" topLeftCell="B55" zoomScale="74" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.26953125" customWidth="1"/>
     <col min="2" max="2" width="13.26953125" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" customWidth="1"/>
     <col min="30" max="30" width="5.26953125" customWidth="1"/>
     <col min="31" max="31" width="8.7265625" hidden="1" customWidth="1"/>
     <col min="33" max="33" width="19.81640625" customWidth="1"/>
@@ -10762,10 +10804,13 @@
       </c>
     </row>
     <row r="25" spans="1:44" ht="29" x14ac:dyDescent="0.35">
-      <c r="AG25" s="34">
+      <c r="AF25" s="96" t="s">
+        <v>525</v>
+      </c>
+      <c r="AG25" s="97">
         <v>71</v>
       </c>
-      <c r="AH25" s="20">
+      <c r="AH25" s="98">
         <v>39.4</v>
       </c>
       <c r="AJ25">
@@ -10784,10 +10829,13 @@
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
-      <c r="AG26" s="34">
+      <c r="AF26" s="96" t="s">
+        <v>526</v>
+      </c>
+      <c r="AG26" s="97">
         <v>58</v>
       </c>
-      <c r="AH26" s="20">
+      <c r="AH26" s="98">
         <v>50.2</v>
       </c>
       <c r="AJ26">
@@ -10832,10 +10880,13 @@
     </row>
     <row r="29" spans="1:44" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B29" s="2"/>
-      <c r="AG29" s="34">
+      <c r="AF29" s="96" t="s">
+        <v>532</v>
+      </c>
+      <c r="AG29" s="97">
         <v>61</v>
       </c>
-      <c r="AH29" s="20">
+      <c r="AH29" s="98">
         <v>49.4</v>
       </c>
       <c r="AJ29">
@@ -10856,10 +10907,13 @@
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B30" s="2"/>
-      <c r="AG30" s="34">
+      <c r="AF30" s="96" t="s">
+        <v>527</v>
+      </c>
+      <c r="AG30" s="97">
         <v>45</v>
       </c>
-      <c r="AH30" s="20">
+      <c r="AH30" s="98">
         <v>56.2</v>
       </c>
       <c r="AJ30">
@@ -10882,10 +10936,13 @@
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
-      <c r="AG32" s="34">
+      <c r="AF32" s="96" t="s">
+        <v>528</v>
+      </c>
+      <c r="AG32" s="97">
         <v>72</v>
       </c>
-      <c r="AH32" s="20">
+      <c r="AH32" s="98">
         <v>50.2</v>
       </c>
       <c r="AJ32">
@@ -10908,10 +10965,13 @@
     </row>
     <row r="34" spans="2:45" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="2"/>
-      <c r="AG34" s="38">
+      <c r="AF34" s="96" t="s">
+        <v>529</v>
+      </c>
+      <c r="AG34" s="99">
         <v>53</v>
       </c>
-      <c r="AH34" s="20">
+      <c r="AH34" s="98">
         <v>61.1</v>
       </c>
       <c r="AJ34">
@@ -10927,10 +10987,13 @@
     </row>
     <row r="35" spans="2:45" x14ac:dyDescent="0.35">
       <c r="B35" s="2"/>
-      <c r="AG35" s="37">
+      <c r="AF35" s="96" t="s">
+        <v>530</v>
+      </c>
+      <c r="AG35" s="100">
         <v>36</v>
       </c>
-      <c r="AH35" s="20">
+      <c r="AH35" s="98">
         <v>34.6</v>
       </c>
       <c r="AJ35">
@@ -10989,10 +11052,13 @@
       </c>
     </row>
     <row r="39" spans="2:45" x14ac:dyDescent="0.35">
-      <c r="AG39" s="34">
+      <c r="AF39" s="96" t="s">
+        <v>531</v>
+      </c>
+      <c r="AG39" s="97">
         <v>62</v>
       </c>
-      <c r="AH39" s="20">
+      <c r="AH39" s="98">
         <v>44.6</v>
       </c>
       <c r="AJ39">
@@ -11231,7 +11297,16 @@
         <v>28835</v>
       </c>
     </row>
-    <row r="65" spans="36:37" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:37" ht="29" x14ac:dyDescent="0.35">
+      <c r="B65" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="E65" t="s">
+        <v>490</v>
+      </c>
       <c r="AJ65" t="s">
         <v>519</v>
       </c>
@@ -11240,14 +11315,214 @@
         <v>13106.81818181818</v>
       </c>
     </row>
-    <row r="67" spans="36:37" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A66" s="96" t="s">
+        <v>525</v>
+      </c>
+      <c r="B66" s="97">
+        <v>71</v>
+      </c>
+      <c r="C66" s="98">
+        <v>39.4</v>
+      </c>
+      <c r="E66">
+        <f>B66*C66</f>
+        <v>2797.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A67" s="96" t="s">
+        <v>526</v>
+      </c>
+      <c r="B67" s="97">
+        <v>58</v>
+      </c>
+      <c r="C67" s="98">
+        <v>50.2</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E73" si="2">B67*C67</f>
+        <v>2911.6000000000004</v>
+      </c>
       <c r="AK67" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="68" spans="36:37" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A68" s="96" t="s">
+        <v>532</v>
+      </c>
+      <c r="B68" s="97">
+        <v>61</v>
+      </c>
+      <c r="C68" s="98">
+        <v>49.4</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="2"/>
+        <v>3013.4</v>
+      </c>
       <c r="AK68" t="s">
         <v>522</v>
+      </c>
+    </row>
+    <row r="69" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A69" s="96" t="s">
+        <v>527</v>
+      </c>
+      <c r="B69" s="97">
+        <v>45</v>
+      </c>
+      <c r="C69" s="98">
+        <v>56.2</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="2"/>
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="70" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A70" s="96" t="s">
+        <v>528</v>
+      </c>
+      <c r="B70" s="97">
+        <v>72</v>
+      </c>
+      <c r="C70" s="98">
+        <v>50.2</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="2"/>
+        <v>3614.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A71" s="96" t="s">
+        <v>529</v>
+      </c>
+      <c r="B71" s="99">
+        <v>53</v>
+      </c>
+      <c r="C71" s="98">
+        <v>61.1</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="2"/>
+        <v>3238.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A72" s="96" t="s">
+        <v>530</v>
+      </c>
+      <c r="B72" s="100">
+        <v>36</v>
+      </c>
+      <c r="C72" s="98">
+        <v>34.6</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="2"/>
+        <v>1245.6000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A73" s="96" t="s">
+        <v>531</v>
+      </c>
+      <c r="B73" s="97">
+        <v>62</v>
+      </c>
+      <c r="C73" s="98">
+        <v>44.6</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="2"/>
+        <v>2765.2000000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="D74" s="73" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="75" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="B75" s="40">
+        <f>AVERAGE(B66:B73)</f>
+        <v>57.25</v>
+      </c>
+      <c r="C75" s="21">
+        <f>AVERAGE(C66:C73)</f>
+        <v>48.212500000000006</v>
+      </c>
+      <c r="D75" s="75">
+        <f>C75*365</f>
+        <v>17597.562500000004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="E76" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="77" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="C77" t="s">
+        <v>491</v>
+      </c>
+      <c r="D77" s="74" t="s">
+        <v>492</v>
+      </c>
+      <c r="E77" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="78" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="D78" s="74" t="s">
+        <v>493</v>
+      </c>
+      <c r="E78" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="80" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="C80" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="D82" s="74" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="D83" s="74" t="s">
+        <v>505</v>
+      </c>
+      <c r="E83" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="F89" s="78">
+        <f>D75/2.2</f>
+        <v>7998.8920454545469</v>
+      </c>
+      <c r="G89" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C90" t="s">
+        <v>537</v>
+      </c>
+      <c r="D90" s="80">
+        <v>23948</v>
+      </c>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="D91" s="42">
+        <f>D90/2.2</f>
+        <v>10885.454545454544</v>
       </c>
     </row>
   </sheetData>
